--- a/output/relatorio.xlsx
+++ b/output/relatorio.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transacoes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo_Tipo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo_Categoria" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +462,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Arquivo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45809</v>
+        <v>45800</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compra no Supermercado</t>
+          <t>FARMACIA DROGASIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-150.00</t>
+          <t>-934.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,6 +491,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>extrato.ofx</t>
         </is>
@@ -492,24 +503,29 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45780</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salário Mensal</t>
+          <t>ESCOLA DE IDIOMAS WIZARD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>-249.46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Crédito</t>
+          <t>Débito</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>extrato.ofx</t>
         </is>
@@ -517,16 +533,16 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45818</v>
+        <v>45801</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abastecimento</t>
+          <t>PIX MARIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-200.00</t>
+          <t>-609.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,6 +551,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>Transferências</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>extrato.ofx</t>
         </is>
@@ -542,24 +563,1409 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45823</v>
+        <v>45785</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pagamento de aluguel</t>
+          <t>SALARIO EMPRESA ABC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-500.00</t>
+          <t>387.86</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Débito</t>
+          <t>Crédito</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PAGAMENTO NETFLIX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-1440.92</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Assinaturas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CONTA VIVO FIBRA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1755.01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CURSO ALURA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-926.71</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIA ITAU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-1010.3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Transferências</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO PÃO DE AÇÚCAR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-1463.53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TARIFA BANCÁRIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1531.8</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TARIFA BANCÁRIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-1403.04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>COMBUSTIVEL POSTO SHELL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-92.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CURSO ALURA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-1252.37</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FARMACIA DROGASIL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-306.27</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SALARIO EMPRESA ABC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1208.52</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>COMBUSTIVEL POSTO SHELL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-452.72</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>COMBUSTIVEL POSTO SHELL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-1193.09</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PADARIA SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-1457.14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IMPOSTO DARF</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-708.66</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Impostos</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VENDA MERCADO LIVRE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>416.99</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LABORATORIO FLEURY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-1498.18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IOF CARTÃO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-1289.76</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PIX MARIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1092.52</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Transferências</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ESCOLA DE IDIOMAS WIZARD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1963.81</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IMPOSTO INSS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1785.83</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Impostos</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SALARIO EMPRESA ABC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>393.94</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IMPOSTO FGTS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-99.97</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Impostos</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CONTA SABESP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-672.88</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>COMBUSTIVEL POSTO SHELL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1708.84</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SHOW EVENTIM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-1331.33</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SALARIO EMPRESA ABC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1666.69</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PIX JOÃO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>657.48</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Transferências</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ÔNIBUS SPTRANS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-1995.93</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RESTAURANTE PIZZA HUT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-1935.44</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PADARIA SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-1548.97</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FREELANCE PROJETO XYZ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1909.67</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FARMACIA RAIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1063.52</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PAGAMENTO CARTÃO VISA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-1059.68</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>99 VIAGEM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-828.52</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PAGAMENTO NETFLIX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-59.85</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Assinaturas</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PAGAMENTO ALUGUEL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-170.66</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PAGAMENTO CARTÃO VISA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-543.42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ÔNIBUS SPTRANS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-1362.92</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ÔNIBUS SPTRANS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-927.81</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FREELANCE PROJETO XYZ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>299.88</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PADARIA PÃO QUENTE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-967.66</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO PÃO DE AÇÚCAR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-575.67</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CURSO UDEMY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-1843.8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PAGAMENTO AMAZON PRIME</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1689.78</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Assinaturas</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>extrato.ofx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CONTA ENEL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-114.05</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>extrato.ofx</t>
         </is>
@@ -604,7 +2010,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2500.00</t>
+          <t>8033.55</t>
         </is>
       </c>
     </row>
@@ -616,7 +2022,170 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-850.00</t>
+          <t>-43826.68</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-7948.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Assinaturas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-3190.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cartão de Crédito</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-5827.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Educacao</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-6236.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Impostos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-2594.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-1331.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-2712.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6283.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-3802.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Transferências</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>130.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-8562.82</t>
         </is>
       </c>
     </row>
